--- a/3_exploratory_data_analysis/aula3/Modulo 3 – Sessão 3 -  Respostas Questões.xlsx
+++ b/3_exploratory_data_analysis/aula3/Modulo 3 – Sessão 3 -  Respostas Questões.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoal\Familia\Eu\ENI\EDIT\202501 Data Science\MÓDULO 3 - EXPLORATORY DATA ANALYTICS\AULA 3\Questionário\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/new/datascience_course/3_exploratory_data_analysis/aula3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D05692-79C7-4151-9294-4D283E4CD7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{05D05692-79C7-4151-9294-4D283E4CD7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65A107C-EA01-46C8-A1EF-BA4B0FD6EE07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>QUESTIONÁRIO INDIVIDUAL</t>
   </si>
@@ -105,12 +105,28 @@
   <si>
     <t>Quando devemos recuperar a informação em falta?</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Primeiramente, devemos analisar a relevância do nível de escolaridade dos encarregados de educação para o estudo. O nível de escolaridade dos encarregados pode ser um fator muito relevante para o desempenho escolar dos alunos, pois pais com maior escolaridade podem influenciar a motivação dos filhos, além de oferecerem mais apoio académico e recursos.
+Em seguida, precisamos identificar a percentagem de valores ausentes (missing values). Adicionalmente, é importante entender a razão pela qual esses dados estão ausentes, ou seja, a tipologia dos missing values:
+MCAR (Missing Completely At Random): Os valores ausentes ocorrem aleatoriamente e não estão relacionados a nenhuma variável do estudo. Nesse caso, excluir algumas observações pode ser aceitável.
+MAR (Missing At Random): A ausência pode estar relacionada a outras variáveis (ex.: pais com menor escolaridade evitam responder). Podemos usar técnicas de imputação baseadas em regressão.
+MNAR (Missing Not At Random): A ausência está diretamente relacionada à própria variável (ex.: encarregados com baixa escolaridade podem não querer responder). Aqui, simplesmente ignorar os valores ausentes pode distorcer a análise, sendo recomendável o uso de métodos mais avançados de imputação ou coleta adicional de dados.
+Se a percentagem de missing values for baixa (≤ 5%), podemos remover essas observações, desde que não haja impacto significativo na amostra.
+Se a variável for MAR e a percentagem for moderada (5% – 20%): Imputação com a moda (se a distribuição for desigual e uma categoria for dominante) ou Imputação baseada em variáveis correlacionadas, como o nível socioeconómico ou a ocupação dos pais.
+Se a variável for MNAR ou houver mais de 20% de missing values: É mais indicado o uso de modelos preditivos para imputar valores com base em outras variáveis.</t>
+  </si>
+  <si>
+    <t>Andreia Filipa Araújo Campos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +156,13 @@
       <color rgb="FF00B0F0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -440,14 +463,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,30 +809,30 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.88671875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="24.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.85546875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -817,7 +840,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
@@ -825,7 +848,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -844,20 +867,22 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -867,10 +892,12 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -878,12 +905,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -892,41 +921,49 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="223.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="223.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
